--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.13762057792</v>
+        <v>1.442371333333333</v>
       </c>
       <c r="H2">
-        <v>10.13762057792</v>
+        <v>4.327114</v>
       </c>
       <c r="I2">
-        <v>0.3934048977960185</v>
+        <v>0.03522044016446201</v>
       </c>
       <c r="J2">
-        <v>0.3934048977960185</v>
+        <v>0.03522044016446201</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>31.09689998593525</v>
+        <v>12.938140093824</v>
       </c>
       <c r="R2">
-        <v>31.09689998593525</v>
+        <v>116.443260844416</v>
       </c>
       <c r="S2">
-        <v>0.09743968456716866</v>
+        <v>0.01715618574556916</v>
       </c>
       <c r="T2">
-        <v>0.09743968456716866</v>
+        <v>0.01715618574556916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.13762057792</v>
+        <v>1.442371333333333</v>
       </c>
       <c r="H3">
-        <v>10.13762057792</v>
+        <v>4.327114</v>
       </c>
       <c r="I3">
-        <v>0.3934048977960185</v>
+        <v>0.03522044016446201</v>
       </c>
       <c r="J3">
-        <v>0.3934048977960185</v>
+        <v>0.03522044016446201</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>90.44252717132061</v>
+        <v>12.99875238357422</v>
       </c>
       <c r="R3">
-        <v>90.44252717132061</v>
+        <v>116.988771452168</v>
       </c>
       <c r="S3">
-        <v>0.2833945288120981</v>
+        <v>0.01723655863486222</v>
       </c>
       <c r="T3">
-        <v>0.2833945288120981</v>
+        <v>0.01723655863486222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.13762057792</v>
+        <v>1.442371333333333</v>
       </c>
       <c r="H4">
-        <v>10.13762057792</v>
+        <v>4.327114</v>
       </c>
       <c r="I4">
-        <v>0.3934048977960185</v>
+        <v>0.03522044016446201</v>
       </c>
       <c r="J4">
-        <v>0.3934048977960185</v>
+        <v>0.03522044016446201</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>4.01180810261158</v>
+        <v>0.6241972526802222</v>
       </c>
       <c r="R4">
-        <v>4.01180810261158</v>
+        <v>5.617775274122</v>
       </c>
       <c r="S4">
-        <v>0.01257068441675174</v>
+        <v>0.0008276957840306357</v>
       </c>
       <c r="T4">
-        <v>0.01257068441675174</v>
+        <v>0.0008276957840306357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6313025715228</v>
+        <v>11.331397</v>
       </c>
       <c r="H5">
-        <v>15.6313025715228</v>
+        <v>33.994191</v>
       </c>
       <c r="I5">
-        <v>0.6065951022039815</v>
+        <v>0.2766948987373093</v>
       </c>
       <c r="J5">
-        <v>0.6065951022039815</v>
+        <v>0.2766948987373092</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>47.9486334076502</v>
+        <v>101.643174997056</v>
       </c>
       <c r="R5">
-        <v>47.9486334076502</v>
+        <v>914.788574973504</v>
       </c>
       <c r="S5">
-        <v>0.1502432627297696</v>
+        <v>0.1347805153888609</v>
       </c>
       <c r="T5">
-        <v>0.1502432627297696</v>
+        <v>0.1347805153888609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6313025715228</v>
+        <v>11.331397</v>
       </c>
       <c r="H6">
-        <v>15.6313025715228</v>
+        <v>33.994191</v>
       </c>
       <c r="I6">
-        <v>0.6065951022039815</v>
+        <v>0.2766948987373093</v>
       </c>
       <c r="J6">
-        <v>0.6065951022039815</v>
+        <v>0.2766948987373092</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>139.4542729905709</v>
+        <v>102.1193505160547</v>
       </c>
       <c r="R6">
-        <v>139.4542729905709</v>
+        <v>919.074154644492</v>
       </c>
       <c r="S6">
-        <v>0.4369689704726488</v>
+        <v>0.1354119319288112</v>
       </c>
       <c r="T6">
-        <v>0.4369689704726488</v>
+        <v>0.1354119319288111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.331397</v>
+      </c>
+      <c r="H7">
+        <v>33.994191</v>
+      </c>
+      <c r="I7">
+        <v>0.2766948987373093</v>
+      </c>
+      <c r="J7">
+        <v>0.2766948987373092</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4327576666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.298273</v>
+      </c>
+      <c r="O7">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="P7">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="Q7">
+        <v>4.903748925793667</v>
+      </c>
+      <c r="R7">
+        <v>44.133740332143</v>
+      </c>
+      <c r="S7">
+        <v>0.006502451419637242</v>
+      </c>
+      <c r="T7">
+        <v>0.006502451419637241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>28.17890933333333</v>
+      </c>
+      <c r="H8">
+        <v>84.536728</v>
+      </c>
+      <c r="I8">
+        <v>0.6880846610982287</v>
+      </c>
+      <c r="J8">
+        <v>0.6880846610982286</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.970048</v>
+      </c>
+      <c r="N8">
+        <v>26.910144</v>
+      </c>
+      <c r="O8">
+        <v>0.487108783009476</v>
+      </c>
+      <c r="P8">
+        <v>0.4871087830094759</v>
+      </c>
+      <c r="Q8">
+        <v>252.766169307648</v>
+      </c>
+      <c r="R8">
+        <v>2274.895523768832</v>
+      </c>
+      <c r="S8">
+        <v>0.3351720818750459</v>
+      </c>
+      <c r="T8">
+        <v>0.3351720818750458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>15.6313025715228</v>
-      </c>
-      <c r="H7">
-        <v>15.6313025715228</v>
-      </c>
-      <c r="I7">
-        <v>0.6065951022039815</v>
-      </c>
-      <c r="J7">
-        <v>0.6065951022039815</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.39573468663341</v>
-      </c>
-      <c r="N7">
-        <v>0.39573468663341</v>
-      </c>
-      <c r="O7">
-        <v>0.03195355341831477</v>
-      </c>
-      <c r="P7">
-        <v>0.03195355341831477</v>
-      </c>
-      <c r="Q7">
-        <v>6.185848624813591</v>
-      </c>
-      <c r="R7">
-        <v>6.185848624813591</v>
-      </c>
-      <c r="S7">
-        <v>0.01938286900156303</v>
-      </c>
-      <c r="T7">
-        <v>0.01938286900156303</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>28.17890933333333</v>
+      </c>
+      <c r="H9">
+        <v>84.536728</v>
+      </c>
+      <c r="I9">
+        <v>0.6880846610982287</v>
+      </c>
+      <c r="J9">
+        <v>0.6880846610982286</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.012070666666666</v>
+      </c>
+      <c r="N9">
+        <v>27.036212</v>
+      </c>
+      <c r="O9">
+        <v>0.489390778604016</v>
+      </c>
+      <c r="P9">
+        <v>0.489390778604016</v>
+      </c>
+      <c r="Q9">
+        <v>253.9503222215929</v>
+      </c>
+      <c r="R9">
+        <v>2285.552899994336</v>
+      </c>
+      <c r="S9">
+        <v>0.3367422880403426</v>
+      </c>
+      <c r="T9">
+        <v>0.3367422880403426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>28.17890933333333</v>
+      </c>
+      <c r="H10">
+        <v>84.536728</v>
+      </c>
+      <c r="I10">
+        <v>0.6880846610982287</v>
+      </c>
+      <c r="J10">
+        <v>0.6880846610982286</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4327576666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.298273</v>
+      </c>
+      <c r="O10">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="P10">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="Q10">
+        <v>12.19463905230489</v>
+      </c>
+      <c r="R10">
+        <v>109.751751470744</v>
+      </c>
+      <c r="S10">
+        <v>0.01617029118284025</v>
+      </c>
+      <c r="T10">
+        <v>0.01617029118284025</v>
       </c>
     </row>
   </sheetData>
